--- a/hubbound/Hub Bound Compilation From Regional planning folder.xlsx
+++ b/hubbound/Hub Bound Compilation From Regional planning folder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\td-trends\hub bound\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\td-trends\hubbound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C1FFF9-B3EA-4138-A1ED-364A68CC760A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF62393-4EA9-43CC-B429-0A6DD6EF40CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Entries" sheetId="3" r:id="rId1"/>
@@ -693,12 +693,135 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,24 +837,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -770,111 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1161,11 +1161,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BL25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28:G48"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1192,347 +1192,347 @@
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A1" s="51"/>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="116" t="s">
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="116"/>
-      <c r="AH1" s="116"/>
-      <c r="AI1" s="116"/>
-      <c r="AJ1" s="116"/>
-      <c r="AK1" s="116"/>
-      <c r="AL1" s="116"/>
-      <c r="AM1" s="116"/>
-      <c r="AN1" s="116"/>
-      <c r="AO1" s="129" t="s">
+      <c r="AG1" s="114"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="114"/>
+      <c r="AJ1" s="114"/>
+      <c r="AK1" s="114"/>
+      <c r="AL1" s="114"/>
+      <c r="AM1" s="114"/>
+      <c r="AN1" s="114"/>
+      <c r="AO1" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="130"/>
-      <c r="AQ1" s="130"/>
-      <c r="AR1" s="130"/>
-      <c r="AS1" s="130"/>
-      <c r="AT1" s="130"/>
-      <c r="AU1" s="130"/>
-      <c r="AV1" s="130"/>
-      <c r="AW1" s="130"/>
-      <c r="AX1" s="130"/>
-      <c r="AY1" s="130"/>
-      <c r="AZ1" s="130"/>
-      <c r="BA1" s="130"/>
-      <c r="BB1" s="130"/>
-      <c r="BC1" s="130"/>
-      <c r="BD1" s="130"/>
-      <c r="BE1" s="130"/>
-      <c r="BF1" s="130"/>
-      <c r="BG1" s="143" t="s">
+      <c r="AP1" s="98"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="98"/>
+      <c r="AS1" s="98"/>
+      <c r="AT1" s="98"/>
+      <c r="AU1" s="98"/>
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="98"/>
+      <c r="AX1" s="98"/>
+      <c r="AY1" s="98"/>
+      <c r="AZ1" s="98"/>
+      <c r="BA1" s="98"/>
+      <c r="BB1" s="98"/>
+      <c r="BC1" s="98"/>
+      <c r="BD1" s="98"/>
+      <c r="BE1" s="98"/>
+      <c r="BF1" s="98"/>
+      <c r="BG1" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="BH1" s="144"/>
-      <c r="BI1" s="144"/>
-      <c r="BJ1" s="145" t="s">
+      <c r="BH1" s="90"/>
+      <c r="BI1" s="90"/>
+      <c r="BJ1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="BK1" s="145"/>
-      <c r="BL1" s="145"/>
+      <c r="BK1" s="91"/>
+      <c r="BL1" s="91"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="114" t="s">
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="113" t="s">
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="117"/>
-      <c r="AJ2" s="117"/>
-      <c r="AK2" s="117"/>
-      <c r="AL2" s="117"/>
-      <c r="AM2" s="117"/>
-      <c r="AN2" s="117"/>
-      <c r="AO2" s="113" t="s">
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="119"/>
+      <c r="AE2" s="119"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="115"/>
+      <c r="AJ2" s="115"/>
+      <c r="AK2" s="115"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="AP2" s="113"/>
-      <c r="AQ2" s="113"/>
-      <c r="AR2" s="113"/>
-      <c r="AS2" s="113"/>
-      <c r="AT2" s="113"/>
-      <c r="AU2" s="113"/>
-      <c r="AV2" s="113"/>
-      <c r="AW2" s="113"/>
-      <c r="AX2" s="113"/>
-      <c r="AY2" s="113"/>
-      <c r="AZ2" s="113"/>
-      <c r="BA2" s="88" t="s">
+      <c r="AP2" s="119"/>
+      <c r="AQ2" s="119"/>
+      <c r="AR2" s="119"/>
+      <c r="AS2" s="119"/>
+      <c r="AT2" s="119"/>
+      <c r="AU2" s="119"/>
+      <c r="AV2" s="119"/>
+      <c r="AW2" s="119"/>
+      <c r="AX2" s="119"/>
+      <c r="AY2" s="119"/>
+      <c r="AZ2" s="119"/>
+      <c r="BA2" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="BB2" s="127"/>
-      <c r="BC2" s="127"/>
-      <c r="BD2" s="128" t="s">
+      <c r="BB2" s="95"/>
+      <c r="BC2" s="95"/>
+      <c r="BD2" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="BE2" s="128"/>
-      <c r="BF2" s="128"/>
-      <c r="BG2" s="144"/>
-      <c r="BH2" s="144"/>
-      <c r="BI2" s="144"/>
-      <c r="BJ2" s="145"/>
-      <c r="BK2" s="145"/>
-      <c r="BL2" s="145"/>
+      <c r="BE2" s="96"/>
+      <c r="BF2" s="96"/>
+      <c r="BG2" s="90"/>
+      <c r="BH2" s="90"/>
+      <c r="BI2" s="90"/>
+      <c r="BJ2" s="91"/>
+      <c r="BK2" s="91"/>
+      <c r="BL2" s="91"/>
     </row>
     <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="92" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="94" t="s">
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="95" t="s">
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="94" t="s">
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="94" t="s">
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="AJ3" s="95"/>
-      <c r="AK3" s="96"/>
-      <c r="AL3" s="95" t="s">
+      <c r="AJ3" s="121"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="131" t="s">
+      <c r="AM3" s="121"/>
+      <c r="AN3" s="122"/>
+      <c r="AO3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="AP3" s="132"/>
-      <c r="AQ3" s="132"/>
-      <c r="AR3" s="132"/>
-      <c r="AS3" s="132"/>
-      <c r="AT3" s="132"/>
-      <c r="AU3" s="132"/>
-      <c r="AV3" s="132"/>
-      <c r="AW3" s="132"/>
-      <c r="AX3" s="132"/>
-      <c r="AY3" s="132"/>
-      <c r="AZ3" s="132"/>
-      <c r="BA3" s="133" t="s">
+      <c r="AP3" s="103"/>
+      <c r="AQ3" s="103"/>
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="103"/>
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="BB3" s="134"/>
-      <c r="BC3" s="135"/>
-      <c r="BD3" s="128"/>
-      <c r="BE3" s="128"/>
-      <c r="BF3" s="128"/>
-      <c r="BG3" s="144"/>
-      <c r="BH3" s="144"/>
-      <c r="BI3" s="144"/>
-      <c r="BJ3" s="145"/>
-      <c r="BK3" s="145"/>
-      <c r="BL3" s="145"/>
+      <c r="BB3" s="105"/>
+      <c r="BC3" s="106"/>
+      <c r="BD3" s="96"/>
+      <c r="BE3" s="96"/>
+      <c r="BF3" s="96"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="90"/>
+      <c r="BJ3" s="91"/>
+      <c r="BK3" s="91"/>
+      <c r="BL3" s="91"/>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="111" t="s">
+      <c r="C4" s="122"/>
+      <c r="D4" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="95" t="s">
+      <c r="E4" s="147"/>
+      <c r="F4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="100" t="s">
+      <c r="G4" s="122"/>
+      <c r="H4" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="100" t="s">
+      <c r="I4" s="136"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="103" t="s">
+      <c r="L4" s="136"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="106" t="s">
+      <c r="O4" s="139"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="107"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="109" t="s">
+      <c r="R4" s="142"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="109"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="90" t="s">
+      <c r="U4" s="144"/>
+      <c r="V4" s="145"/>
+      <c r="W4" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="97" t="s">
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="99"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="125"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="124" t="s">
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="125"/>
+      <c r="AI4" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="AJ4" s="125"/>
-      <c r="AK4" s="126"/>
+      <c r="AJ4" s="127"/>
+      <c r="AK4" s="128"/>
       <c r="AL4" s="15"/>
       <c r="AM4" s="15"/>
       <c r="AN4" s="16"/>
-      <c r="AO4" s="118" t="s">
+      <c r="AO4" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="AP4" s="119"/>
-      <c r="AQ4" s="120"/>
-      <c r="AR4" s="121" t="s">
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="101"/>
+      <c r="AR4" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="AS4" s="122"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="118" t="s">
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="118"/>
+      <c r="AU4" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="AV4" s="119"/>
-      <c r="AW4" s="120"/>
-      <c r="AX4" s="118" t="s">
+      <c r="AV4" s="100"/>
+      <c r="AW4" s="101"/>
+      <c r="AX4" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="AY4" s="119"/>
-      <c r="AZ4" s="120"/>
-      <c r="BA4" s="136" t="s">
+      <c r="AY4" s="100"/>
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="BB4" s="137"/>
-      <c r="BC4" s="138"/>
-      <c r="BD4" s="139"/>
-      <c r="BE4" s="139"/>
-      <c r="BF4" s="140"/>
-      <c r="BG4" s="146" t="s">
+      <c r="BB4" s="108"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="110"/>
+      <c r="BE4" s="110"/>
+      <c r="BF4" s="111"/>
+      <c r="BG4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="BH4" s="141" t="s">
+      <c r="BH4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="BI4" s="141" t="s">
+      <c r="BI4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="BJ4" s="141" t="s">
+      <c r="BJ4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="141" t="s">
+      <c r="BK4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="BL4" s="141" t="s">
+      <c r="BL4" s="87" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1709,12 +1709,12 @@
       <c r="BF5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BG5" s="147"/>
-      <c r="BH5" s="142"/>
-      <c r="BI5" s="142"/>
-      <c r="BJ5" s="142"/>
-      <c r="BK5" s="142"/>
-      <c r="BL5" s="142"/>
+      <c r="BG5" s="93"/>
+      <c r="BH5" s="88"/>
+      <c r="BI5" s="88"/>
+      <c r="BJ5" s="88"/>
+      <c r="BK5" s="88"/>
+      <c r="BL5" s="88"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="52">
@@ -5839,33 +5839,6 @@
     <sortCondition ref="A6"/>
   </sortState>
   <mergeCells count="43">
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BG1:BI3"/>
-    <mergeCell ref="BJ1:BL3"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BD2:BF3"/>
-    <mergeCell ref="AO1:BF1"/>
-    <mergeCell ref="AX4:AZ4"/>
-    <mergeCell ref="AO3:AZ3"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BA4:BC4"/>
-    <mergeCell ref="BD4:BF4"/>
-    <mergeCell ref="H2:P3"/>
-    <mergeCell ref="AF1:AN2"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="AR4:AT4"/>
-    <mergeCell ref="AU4:AW4"/>
-    <mergeCell ref="AO2:AZ2"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="B1:AE1"/>
     <mergeCell ref="W4:Y4"/>
@@ -5882,6 +5855,33 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="Q2:AE2"/>
+    <mergeCell ref="H2:P3"/>
+    <mergeCell ref="AF1:AN2"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="AR4:AT4"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AO2:AZ2"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BD2:BF3"/>
+    <mergeCell ref="AO1:BF1"/>
+    <mergeCell ref="AX4:AZ4"/>
+    <mergeCell ref="AO3:AZ3"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BA4:BC4"/>
+    <mergeCell ref="BD4:BF4"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BG1:BI3"/>
+    <mergeCell ref="BJ1:BL3"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BK4:BK5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5892,7 +5892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED2038F-80D5-4460-929A-77034D43D46C}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
